--- a/service/src/INFRA/WEB/static/uploads/cruises2.xlsx
+++ b/service/src/INFRA/WEB/static/uploads/cruises2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Cuevas\DEV\CRS\back\service\src\infra\web\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30280A-10F1-4474-95D4-8460E83BA423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837064CB-6CC7-4048-846A-AAB27B9A712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="459">
   <si>
     <t>YES</t>
   </si>
@@ -9329,6 +9329,12 @@
     <t xml:space="preserve">Islands &amp; Places: Floreana Cormorant Point + Devils Crown AM / Post Office Bay PM (8D B)
 Wildife Highlights: Blue-footed boobies, Flamingos,  Marine iguanas </t>
   </si>
+  <si>
+    <t>wildlife</t>
+  </si>
+  <si>
+    <t>Marine iguanas, Galapagos sea lion</t>
+  </si>
 </sst>
 </file>
 
@@ -9657,11 +9663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -10267,10 +10273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53743CE-5EA6-415F-A011-9D557CC12F7D}">
-  <dimension ref="A1:L995"/>
+  <dimension ref="A1:M995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -10282,7 +10288,7 @@
     <col min="11" max="11" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>434</v>
       </c>
@@ -10319,8 +10325,9 @@
       <c r="L1" s="11" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10357,7 +10364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10394,7 +10401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -10431,7 +10438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -10468,7 +10475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -10505,7 +10512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -10542,7 +10549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -10579,7 +10586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -10653,7 +10660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -10690,7 +10697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -10727,7 +10734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -10764,7 +10771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <f t="shared" ref="A14:A16" si="0">A2+1</f>
         <v>2</v>
@@ -10802,7 +10809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -10840,7 +10847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25569,10 +25576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7C2235-E7BE-4F6B-AB9B-64520AC3F713}">
-  <dimension ref="A1:S998"/>
+  <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -25594,9 +25601,10 @@
     <col min="16" max="16" width="36.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>434</v>
       </c>
@@ -25654,8 +25662,11 @@
       <c r="S1" s="6" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="187.2">
+      <c r="T1" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="187.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -25713,8 +25724,11 @@
       <c r="S2" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="109.2">
+      <c r="T2" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="109.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -25755,7 +25769,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="93.6">
+    <row r="4" spans="1:20" ht="93.6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -25794,7 +25808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="109.2">
+    <row r="5" spans="1:20" ht="109.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -25833,7 +25847,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="93.6">
+    <row r="6" spans="1:20" ht="93.6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -25874,7 +25888,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="202.8">
+    <row r="7" spans="1:20" ht="202.8">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -25933,7 +25947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="93.6">
+    <row r="8" spans="1:20" ht="93.6">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -25972,7 +25986,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="78">
+    <row r="9" spans="1:20" ht="78">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -26013,7 +26027,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="202.8">
+    <row r="10" spans="1:20" ht="202.8">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -26072,7 +26086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="93.6">
+    <row r="11" spans="1:20" ht="93.6">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -26111,7 +26125,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="78">
+    <row r="12" spans="1:20" ht="78">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -26152,7 +26166,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="202.8">
+    <row r="13" spans="1:20" ht="202.8">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -26211,7 +26225,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="78">
+    <row r="14" spans="1:20" ht="78">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -26250,7 +26264,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="109.2">
+    <row r="15" spans="1:20" ht="109.2">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -26291,7 +26305,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="187.2">
+    <row r="16" spans="1:20" ht="187.2">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -26389,7 +26403,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="109.2">
+    <row r="18" spans="1:19" ht="93.6">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -26430,7 +26444,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="218.4">
+    <row r="19" spans="1:19" ht="202.8">
       <c r="A19" s="2">
         <v>5</v>
       </c>
